--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -29,10 +29,19 @@
     <t>External Help</t>
   </si>
   <si>
+    <t>New-PSSysTrayConfigFile.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New-PSSysTrayConfigFile.md -  - {{ Fill Confirm Description }}</t>
+  </si>
+  <si>
     <t>Start-PSSysTray.md</t>
   </si>
   <si>
     <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill Confirm Description }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New-PSSysTrayConfigFile.md -  - {{ Fill WhatIf Description }}</t>
   </si>
   <si>
     <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill WhatIf Description }}</t>
@@ -87,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -97,8 +106,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="18.43241310119629" customWidth="1"/>
-    <col min="3" max="3" width="45.9293327331543" customWidth="1"/>
+    <col min="2" max="2" width="26.867586135864258" customWidth="1"/>
+    <col min="3" max="3" width="54.36450958251953" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,14 +137,36 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C3"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$3</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Catagory</t>
   </si>
@@ -26,25 +26,13 @@
     <t>details</t>
   </si>
   <si>
-    <t>External Help</t>
+    <t>Not Copied</t>
   </si>
   <si>
-    <t>New-PSSysTrayConfigFile.md</t>
+    <t>New-PSSysTrayConfigFile</t>
   </si>
   <si>
-    <t xml:space="preserve">New-PSSysTrayConfigFile.md -  - {{ Fill Confirm Description }}</t>
-  </si>
-  <si>
-    <t>Start-PSSysTray.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill Confirm Description }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New-PSSysTrayConfigFile.md -  - {{ Fill WhatIf Description }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill WhatIf Description }}</t>
+    <t>Start-PSSysTray</t>
   </si>
 </sst>
 </file>
@@ -96,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -105,9 +93,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
-    <col min="2" max="2" width="26.867586135864258" customWidth="1"/>
-    <col min="3" max="3" width="54.36450958251953" customWidth="1"/>
+    <col min="1" max="1" width="11.6559076309204" customWidth="1"/>
+    <col min="2" max="2" width="23.4648704528809" customWidth="1"/>
+    <col min="3" max="3" width="9.64149141311646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,8 +116,8 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
+      <c r="C2" s="0">
+        <f>&gt;</f>
       </c>
     </row>
     <row r="3">
@@ -137,36 +125,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
+      <c r="C3" s="0">
+        <f>&gt;</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C5"/>
+  <autoFilter ref="A1:C3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Other'!$A$1:$C$5</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Catagory</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill Confirm Description }}</t>
-  </si>
-  <si>
-    <t>Add-PSSysTrayEntry.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add-PSSysTrayEntry.md -  - {{ Fill PSSysTrayConfigFilePath Description }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start-PSSysTray.md -  - {{ Fill PSSysTrayConfigFilePath Description }}</t>
   </si>
   <si>
     <t xml:space="preserve">New-PSSysTrayConfigFile.md -  - {{ Fill WhatIf Description }}</t>
@@ -105,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -116,7 +107,7 @@
   <cols>
     <col min="1" max="1" width="13.148280143737793" customWidth="1"/>
     <col min="2" max="2" width="26.867586135864258" customWidth="1"/>
-    <col min="3" max="3" width="64.1961669921875" customWidth="1"/>
+    <col min="3" max="3" width="54.36450958251953" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -157,10 +148,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -171,33 +162,11 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C7"/>
+  <autoFilter ref="A1:C5"/>
   <headerFooter/>
 </worksheet>
 </file>